--- a/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
+++ b/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
@@ -4,15 +4,83 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170"/>
   </bookViews>
   <sheets>
     <sheet name="Tritype" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+  <si>
+    <t>double Tritype(double a, double b, double c)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>int type = -1;</t>
+  </si>
+  <si>
+    <t>if (a + b &gt; c &amp;&amp; a + c &gt; b &amp;&amp; b + c &gt; a)</t>
+  </si>
+  <si>
+    <t>if (a == b &amp;&amp; b == c)</t>
+  </si>
+  <si>
+    <t>type = 3;  // Equilateral</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>if (a == b || b == c || c == a)</t>
+  </si>
+  <si>
+    <t>type = 2;  // Isosceles</t>
+  </si>
+  <si>
+    <t>type = 1;  // Scalene</t>
+  </si>
+  <si>
+    <t>type = -1; // Not a triangle</t>
+  </si>
+  <si>
+    <t>return type;</t>
+  </si>
+  <si>
+    <t>------------Create all target paths start-------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 1: [a+b&gt;c&amp;&amp;a+c&gt;b&amp;&amp;b+c&gt;a]F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 2: [a+b&gt;c&amp;&amp;a+c&gt;b&amp;&amp;b+c&gt;a]T [a==b&amp;&amp;b==c]F [a==b||b==c||c==a]F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 3: [a+b&gt;c&amp;&amp;a+c&gt;b&amp;&amp;b+c&gt;a]T [a==b&amp;&amp;b==c]F [a==b||b==c||c==a]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 4: [a+b&gt;c&amp;&amp;a+c&gt;b&amp;&amp;b+c&gt;a]T [a==b&amp;&amp;b==c]T </t>
+  </si>
+  <si>
+    <t>------------Create all target paths end-------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[a+b&gt;c&amp;&amp;a+c&gt;b&amp;&amp;b+c&gt;a]F </t>
+  </si>
+  <si>
+    <t>GetBranchDistance(a + b, c, 7), GetBranchDistance(a + c, b, 7), GetBranchDistance(b + c, a, 7)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,16 +134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>513618</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>608868</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>8880</xdr:rowOff>
+      <xdr:rowOff>75555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -92,7 +160,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="180975"/>
+          <a:off x="238125" y="247650"/>
           <a:ext cx="5857143" cy="5161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -100,232 +168,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="104775"/>
-          <a:ext cx="3276600" cy="4248150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>double Tritype(double a, double b, double c)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	int type = -1;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	if (a + b &gt; c &amp;&amp; a + c &gt; b &amp;&amp; b + c &gt; a)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>		if (a == b &amp;&amp; b == c)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>		{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>			type = 3;  // Equilateral</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>		}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>		else</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>		{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>			if (a == b || b == c || c == a)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>			{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>				type = 2;  // Isosceles</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>			}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>			else</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>			{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>				type = 1;  // Scalene</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>			}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>		}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	else</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>		type = -1; // Not a triangle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>	return type;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -618,14 +460,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -635,7 +649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
+++ b/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tritype" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="computeTax" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>double Tritype(double a, double b, double c)</t>
   </si>
@@ -75,17 +75,194 @@
     <t>------------Create all target paths end-------------</t>
   </si>
   <si>
-    <t xml:space="preserve">[a+b&gt;c&amp;&amp;a+c&gt;b&amp;&amp;b+c&gt;a]F </t>
-  </si>
-  <si>
-    <t>GetBranchDistance(a + b, c, 7), GetBranchDistance(a + c, b, 7), GetBranchDistance(b + c, a, 7)</t>
+    <t>Test path ID = 1</t>
+  </si>
+  <si>
+    <t>Test path ID = 2</t>
+  </si>
+  <si>
+    <t>Estimated time = 10</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 0, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 5412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Z: 2931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 6424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 9084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Z: 6715</t>
+  </si>
+  <si>
+    <t>Test path ID = 3</t>
+  </si>
+  <si>
+    <t>Test path ID = 4</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 493, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 2465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 2465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Z: 606</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 594, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 1319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 1319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Z: 1319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void computeTax (int status, double income) </t>
+  </si>
+  <si>
+    <t>// Compute tax</t>
+  </si>
+  <si>
+    <t>double tax1 = income * 0.10;</t>
+  </si>
+  <si>
+    <t>double tax2 = 8350 * 0.10 + (income - 8350) * 0.15;</t>
+  </si>
+  <si>
+    <t>double tax3 = 8350 * 0.10 + (33950 - 8350) * 0.15 + (income - 33950) * 0.25;</t>
+  </si>
+  <si>
+    <t>double tax4 = 8350 * 0.10 + (33950 - 8350) * 0.15 + (82250 - 33950) * 0.25 + (income - 82250) * 0.28;</t>
+  </si>
+  <si>
+    <t>double tax5 = 8350 * 0.10 + (33950 - 8350) * 0.15 + (82250 - 33950) * 0.25 + (171550 - 82250) * 0.28 + (income - 171550) * 0.33;</t>
+  </si>
+  <si>
+    <t>double tax6 = 8350 * 0.10 + (33950 - 8350) * 0.15 + (82250 - 33950) * 0.25 + (171550 - 82250) * 0.28 + (372950 - 171550) * 0.33 + (income - 372950) * 0.35;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (status == 0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t>// Compute tax for single filers</t>
+  </si>
+  <si>
+    <t>if (income &lt;= 8350)</t>
+  </si>
+  <si>
+    <t>tax = tax1;</t>
+  </si>
+  <si>
+    <t>else if (income &lt;= 33950)</t>
+  </si>
+  <si>
+    <t>else if (income &lt;= 82250)</t>
+  </si>
+  <si>
+    <t>tax = tax3;</t>
+  </si>
+  <si>
+    <t>else if (income &lt;= 171550)</t>
+  </si>
+  <si>
+    <t>tax = tax4;</t>
+  </si>
+  <si>
+    <t>else if (income &lt;= 372950)</t>
+  </si>
+  <si>
+    <t>tax = tax5;</t>
+  </si>
+  <si>
+    <t>tax = tax6;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else if (status == 1) </t>
+  </si>
+  <si>
+    <t>printf("Compute tax for married file jointly or qualifying widow(er)\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else if (status == 2) </t>
+  </si>
+  <si>
+    <t>printf("Compute tax for married separately\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else if (status == 3) </t>
+  </si>
+  <si>
+    <t>printf("Compute tax for head of household\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else </t>
+  </si>
+  <si>
+    <t>printf("Error: invalid status\n");</t>
+  </si>
+  <si>
+    <t>// Display the result</t>
+  </si>
+  <si>
+    <t>printf("Tax is %d\n", (int)(tax * 100) / 100.0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 1: [status==0]F [status==1]F [status==2]F [status==3]F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 2: [status==0]F [status==1]F [status==2]F [status==3]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 3: [status==0]F [status==1]F [status==2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 4: [status==0]F [status==1]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 5: [status==0]T [income&lt;=8350]F [income&lt;=33950]F [income&lt;=82250]F [income&lt;=171550]F [income&lt;=372950]F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 6: [status==0]T [income&lt;=8350]F [income&lt;=33950]F [income&lt;=82250]F [income&lt;=171550]F [income&lt;=372950]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 7: [status==0]T [income&lt;=8350]F [income&lt;=33950]F [income&lt;=82250]F [income&lt;=171550]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 8: [status==0]T [income&lt;=8350]F [income&lt;=33950]F [income&lt;=82250]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 9: [status==0]T [income&lt;=8350]F [income&lt;=33950]T </t>
+  </si>
+  <si>
+    <t>Path 10: [status==0]T [income&lt;=8350]T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,7 +330,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -166,6 +343,58 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="34637" y="0"/>
+          <a:ext cx="11516589" cy="9074726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -248,7 +477,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,7 +511,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,184 +686,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="12:16">
       <c r="L2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="12:16">
       <c r="L3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="12:16">
       <c r="M4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="12:16">
       <c r="M6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="12:16">
       <c r="M7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="12:16">
       <c r="N8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="12:16">
       <c r="N9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:16">
       <c r="O10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="12:16">
       <c r="N11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="12:16">
       <c r="N12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:16">
       <c r="N13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="12:16">
       <c r="O14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="12:16">
       <c r="O15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="12:16">
       <c r="P16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="O17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="O18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="O19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="P20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="O21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="N22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="M23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="M24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="M25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="N26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="M27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="M28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="L29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="B31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>19</v>
       </c>
-      <c r="O32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
       <c r="B34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
       <c r="B35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
         <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="L45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="L48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12">
+      <c r="L49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="12:12">
+      <c r="L50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12">
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12">
+      <c r="L52" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -646,26 +962,298 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AB59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="21:24">
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="21:24">
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="21:24">
+      <c r="V4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="21:24">
+      <c r="V5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="21:24">
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="21:24">
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="21:24">
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="21:24">
+      <c r="V9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="21:24">
+      <c r="V10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="21:24">
+      <c r="V11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="21:24">
+      <c r="V12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="21:24">
+      <c r="W13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="21:24">
+      <c r="W14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="21:24">
+      <c r="X15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="21:24">
+      <c r="W16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="22:28">
+      <c r="Y17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="22:28">
+      <c r="X18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="22:28">
+      <c r="Z19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="22:28">
+      <c r="Y20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="22:28">
+      <c r="AA21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="22:28">
+      <c r="Z22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="22:28">
+      <c r="AB23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="22:28">
+      <c r="AA24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="22:28">
+      <c r="AB25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="22:28">
+      <c r="V26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="22:28">
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="22:28">
+      <c r="V28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="22:28">
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="22:28">
+      <c r="V30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="22:28">
+      <c r="V31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="22:28">
+      <c r="V32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="21:23">
+      <c r="W33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="21:23">
+      <c r="V34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="21:23">
+      <c r="V35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="21:23">
+      <c r="V36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="21:23">
+      <c r="W37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="21:23">
+      <c r="V38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="21:23">
+      <c r="V39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="21:23">
+      <c r="V40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="21:23">
+      <c r="W41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="21:23">
+      <c r="V42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="21:23">
+      <c r="V44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="21:23">
+      <c r="V45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="21:23">
+      <c r="U46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
+++ b/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170"/>
   </bookViews>
   <sheets>
     <sheet name="Tritype" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>double Tritype(double a, double b, double c)</t>
   </si>
@@ -256,6 +256,114 @@
   </si>
   <si>
     <t>Path 10: [status==0]T [income&lt;=8350]T</t>
+  </si>
+  <si>
+    <t>Estimated time = 5</t>
+  </si>
+  <si>
+    <t>===============================================</t>
+  </si>
+  <si>
+    <t>Test path ID:  8</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 14, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 374979</t>
+  </si>
+  <si>
+    <t>Test path ID:  4</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 13, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 4178</t>
+  </si>
+  <si>
+    <t>Test path ID:  7</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 222, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 284403</t>
+  </si>
+  <si>
+    <t>Test path ID:  3</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 50, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 8161</t>
+  </si>
+  <si>
+    <t>Test path ID:  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 3183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 5136</t>
+  </si>
+  <si>
+    <t>Test path ID:  5</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 346, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 1253562</t>
+  </si>
+  <si>
+    <t>Test path ID:  6</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 273, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 461503</t>
+  </si>
+  <si>
+    <t>Test path ID:  9</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 234, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 54479</t>
+  </si>
+  <si>
+    <t>Test path ID:  2</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 293, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 1566</t>
+  </si>
+  <si>
+    <t>Test path ID:  10</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 238, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 9662</t>
   </si>
 </sst>
 </file>
@@ -689,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -963,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AB59"/>
+  <dimension ref="A2:AB110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A59"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1191,54 +1299,339 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="R50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="R51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="R52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="R53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="R54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="R55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="R56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="R57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="R58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>79</v>
+      </c>
+      <c r="R59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="R60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="R61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="R62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="R63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="R64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="18:18">
+      <c r="R65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="18:18">
+      <c r="R66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="18:18">
+      <c r="R67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="18:18">
+      <c r="R68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="18:18">
+      <c r="R69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="18:18">
+      <c r="R70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="18:18">
+      <c r="R71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="18:18">
+      <c r="R72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="18:18">
+      <c r="R73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="18:18">
+      <c r="R74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="18:18">
+      <c r="R75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="18:18">
+      <c r="R76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="18:18">
+      <c r="R77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="18:18">
+      <c r="R78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="18:18">
+      <c r="R79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="18:18">
+      <c r="R80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="18:18">
+      <c r="R81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="18:18">
+      <c r="R82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="18:18">
+      <c r="R83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="18:18">
+      <c r="R84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="18:18">
+      <c r="R85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="18:18">
+      <c r="R86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="18:18">
+      <c r="R87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="18:18">
+      <c r="R88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="18:18">
+      <c r="R89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="18:18">
+      <c r="R90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="18:18">
+      <c r="R91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="18:18">
+      <c r="R92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="18:18">
+      <c r="R93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="18:18">
+      <c r="R94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="18:18">
+      <c r="R95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="18:18">
+      <c r="R96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="18:18">
+      <c r="R97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="18:18">
+      <c r="R98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="18:18">
+      <c r="R99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="18:18">
+      <c r="R100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="18:18">
+      <c r="R101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="18:18">
+      <c r="R102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="18:18">
+      <c r="R103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="18:18">
+      <c r="R104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="18:18">
+      <c r="R105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="18:18">
+      <c r="R106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="18:18">
+      <c r="R107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="18:18">
+      <c r="R108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="18:18">
+      <c r="R109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="18:18">
+      <c r="R110" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
+++ b/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170"/>
   </bookViews>
   <sheets>
-    <sheet name="Tritype" sheetId="1" r:id="rId1"/>
+    <sheet name="triangleType " sheetId="1" r:id="rId1"/>
     <sheet name="computeTax" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
-  <si>
-    <t>double Tritype(double a, double b, double c)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>{</t>
   </si>
@@ -75,66 +72,9 @@
     <t>------------Create all target paths end-------------</t>
   </si>
   <si>
-    <t>Test path ID = 1</t>
-  </si>
-  <si>
-    <t>Test path ID = 2</t>
-  </si>
-  <si>
-    <t>Estimated time = 10</t>
-  </si>
-  <si>
     <t>Solution found at iteration 0, the solutions is:</t>
   </si>
   <si>
-    <t xml:space="preserve">     Best X: 5412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best Y: 184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best Z: 2931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best X: 6424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best Y: 9084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best Z: 6715</t>
-  </si>
-  <si>
-    <t>Test path ID = 3</t>
-  </si>
-  <si>
-    <t>Test path ID = 4</t>
-  </si>
-  <si>
-    <t>Solution found at iteration 493, the solutions is:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best X: 2465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best Y: 2465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best Z: 606</t>
-  </si>
-  <si>
-    <t>Solution found at iteration 594, the solutions is:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best X: 1319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best Y: 1319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Best Z: 1319</t>
-  </si>
-  <si>
     <t xml:space="preserve">void computeTax (int status, double income) </t>
   </si>
   <si>
@@ -364,6 +304,51 @@
   </si>
   <si>
     <t xml:space="preserve">     Best Y: 9662</t>
+  </si>
+  <si>
+    <t>double triangleType(double a, double b, double c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 4758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 5254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Z: 632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 3993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 2942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Z: 9105</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 490, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 2911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 6324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Z: 6324</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 545, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X: 1265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Y: 1265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best Z: 1265</t>
   </si>
 </sst>
 </file>
@@ -795,272 +780,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P52"/>
+  <dimension ref="B2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="12:16">
       <c r="L2" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="12:16">
       <c r="L3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="12:16">
       <c r="M4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="12:16">
       <c r="M6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="12:16">
       <c r="M7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="12:16">
       <c r="N8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="12:16">
       <c r="N9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="12:16">
       <c r="O10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="12:16">
       <c r="N11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="12:16">
       <c r="N12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="12:16">
       <c r="N13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="12:16">
       <c r="O14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="12:16">
       <c r="O15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="12:16">
       <c r="P16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="O17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:16">
       <c r="O18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="O19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="P20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="O21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="N22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="M23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="M24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="M25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="N26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="M27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="M28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="L29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="L37" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="L38" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="L39" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="L40" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="L41" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="L42" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="L43" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="L44" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="L45" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="L46" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="L47" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="L48" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="12:12">
       <c r="L49" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="12:12">
       <c r="L50" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="12:12">
       <c r="L51" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="12:12">
       <c r="L52" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="12:12">
+      <c r="L53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="12:12">
+      <c r="L54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="12:12">
+      <c r="L55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="12:12">
+      <c r="L56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="12:12">
+      <c r="L57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="12:12">
+      <c r="L58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12">
+      <c r="L59" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AB110"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
@@ -1081,557 +1101,557 @@
   <sheetData>
     <row r="2" spans="21:24">
       <c r="U2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="21:24">
       <c r="U3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="21:24">
       <c r="V4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="21:24">
       <c r="V5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="21:24">
       <c r="V6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="21:24">
       <c r="V7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="21:24">
       <c r="V8" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="21:24">
       <c r="V9" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="21:24">
       <c r="V10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="21:24">
       <c r="V11" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="21:24">
       <c r="V12" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="21:24">
       <c r="W13" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="21:24">
       <c r="W14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="21:24">
       <c r="X15" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="21:24">
       <c r="W16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="22:28">
       <c r="Y17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="22:28">
       <c r="X18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="22:28">
       <c r="Z19" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="22:28">
       <c r="Y20" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="22:28">
       <c r="AA21" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="22:28">
       <c r="Z22" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="22:28">
       <c r="AB23" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="22:28">
       <c r="AA24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="22:28">
       <c r="AB25" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="22:28">
       <c r="V26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="22:28">
       <c r="V27" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="22:28">
       <c r="V28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="22:28">
       <c r="W29" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="22:28">
       <c r="V30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="22:28">
       <c r="V31" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="22:28">
       <c r="V32" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="21:23">
       <c r="W33" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="21:23">
       <c r="V34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="21:23">
       <c r="V35" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="21:23">
       <c r="V36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="21:23">
       <c r="W37" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="21:23">
       <c r="V38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="21:23">
       <c r="V39" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="21:23">
       <c r="V40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="21:23">
       <c r="W41" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="21:23">
       <c r="V42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="21:23">
       <c r="V44" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="21:23">
       <c r="V45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="21:23">
       <c r="U46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R50" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="R51" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="R52" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="R53" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="R54" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="R55" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="R58" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="R59" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="R60" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="R61" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="R62" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="R63" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="R64" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="18:18">
       <c r="R65" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="18:18">
       <c r="R66" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="18:18">
       <c r="R67" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="18:18">
       <c r="R68" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="18:18">
       <c r="R69" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="18:18">
       <c r="R70" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="18:18">
       <c r="R71" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="18:18">
       <c r="R72" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="18:18">
       <c r="R73" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="18:18">
       <c r="R74" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="18:18">
       <c r="R75" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="18:18">
       <c r="R76" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="18:18">
       <c r="R77" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="18:18">
       <c r="R78" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="18:18">
       <c r="R79" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="18:18">
       <c r="R80" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="18:18">
       <c r="R81" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="18:18">
       <c r="R82" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="18:18">
       <c r="R83" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="18:18">
       <c r="R84" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="18:18">
       <c r="R85" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="18:18">
       <c r="R86" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="18:18">
       <c r="R87" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="18:18">
       <c r="R88" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="18:18">
       <c r="R89" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="18:18">
       <c r="R90" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="18:18">
       <c r="R91" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="18:18">
       <c r="R92" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="18:18">
       <c r="R93" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="18:18">
       <c r="R94" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="18:18">
       <c r="R95" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="18:18">
       <c r="R96" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="18:18">
       <c r="R97" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="18:18">
       <c r="R98" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="18:18">
       <c r="R99" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="18:18">
       <c r="R100" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="18:18">
       <c r="R101" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="18:18">
       <c r="R102" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="18:18">
       <c r="R103" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="18:18">
       <c r="R104" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="18:18">
       <c r="R105" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="18:18">
       <c r="R106" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="18:18">
       <c r="R107" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="18:18">
       <c r="R108" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="18:18">
       <c r="R109" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="18:18">
       <c r="R110" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
+++ b/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="triangleType " sheetId="1" r:id="rId1"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1093,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AB110"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>

--- a/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
+++ b/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="2160" windowHeight="1170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="triangleType " sheetId="1" r:id="rId1"/>
     <sheet name="computeTax" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="line" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="195">
   <si>
     <t>{</t>
   </si>
@@ -349,6 +349,258 @@
   </si>
   <si>
     <t xml:space="preserve">     Best Z: 1265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void line(int xr1, int xr2, int yr1, int yr2, int xl1, int xl2, int yl1, int yl2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int salida = -1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int x, y;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // precondiciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if(xr1 &lt; xr2 &amp;&amp; yr1 &lt; yr2 &amp;&amp; xl1 &lt;= xl2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // completamente cubierta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(xl1 &gt;= xr1 &amp;&amp; xl1 &lt;= xr2 &amp;&amp; xl2 &gt;= xr1 &amp;&amp; xl2 &lt;= xr2 &amp;&amp; yl1 &gt;= yr1 &amp;&amp; yl1 &lt;= yr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &amp;&amp; yl2 &gt;= yr1 &amp;&amp; yl2 &lt;= yr2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            salida = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            // completamente fuera o parcialmente dentro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if(yl1 == yl2) // linea horizantal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if(yl1 &lt; yr1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    salida = 2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else if(yl1 &gt; yr2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if(xl1 &gt; xr2 || xl2 &lt; xr1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        salida = 2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        salida = 3; // parcialmente cubierta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else if(xl1 == xl2) // linea vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if(xl1 &lt; xr1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else if(xl1 &gt; xr2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if(yl1 &gt; yr2 || yl2 &lt; yr1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else // linea inclinada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if(yl1 &lt; yr1 &amp;&amp; yl2 &lt; yr1) // parte superior del rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else if(yl1 &gt; yr2 &amp;&amp; yl2 &gt; yr2) // parte inferior del rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else if(xl1 &lt; xr1 &amp;&amp; xl2 &lt; xr1) // parte izquierda del rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else if(xl1 &gt; xr2 &amp;&amp; xl2 &gt; xr2) // parte derecha del rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    // pto de corte con la parte superior del rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    x = (xl2 - xl1) / (yl2 - yl1) * (yr1 - yl1) + xl1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if(x &gt;= xr1 &amp;&amp; x &lt;= xr2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        salida = 3; // la linea entra en el rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        // pto de corte con la parte inferior del rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        x = (xl2 - xl1) / (yl2 - yl1) * (yr2 - yl1) + xl1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if(x &gt;= xr1 &amp;&amp; x &lt;= xr2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            salida = 3; // la linea corta el rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            // pto de corte con la parte izquieda del rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            y = (yl2 - yl1) / (xl2 - xl1) * (xr1 - xl1) + yl1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            if(y &gt;= yr1 &amp;&amp; y &lt;= yr2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                salida = 3; // la linea corta el rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                // pto de corte con la parte derecha del rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                y = (yl2 - yl1) / (xl2 - xl1) * (xr2 - xl1) + yl1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                if( y &gt;= yr1 &amp;&amp; y &lt;= yr2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    salida = 3; // la linea corta el rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    salida = 2; // la linea no corta al rectangulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            } // fin linea inclinada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    printf("salida = %d\n", salida);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 1: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 2: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]F [yl1&gt;yr2&amp;&amp;yl2&gt;yr2]F [xl1&lt;xr1&amp;&amp;xl2&lt;xr1]F [xl1&gt;xr2&amp;&amp;xl2&gt;xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]F [y&gt;=yr1&amp;&amp;y&lt;=yr2]F [y&gt;=yr1&amp;&amp;y&lt;=yr2]F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 3: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]F [yl1&gt;yr2&amp;&amp;yl2&gt;yr2]F [xl1&lt;xr1&amp;&amp;xl2&lt;xr1]F [xl1&gt;xr2&amp;&amp;xl2&gt;xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]F [y&gt;=yr1&amp;&amp;y&lt;=yr2]F [y&gt;=yr1&amp;&amp;y&lt;=yr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 4: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]F [yl1&gt;yr2&amp;&amp;yl2&gt;yr2]F [xl1&lt;xr1&amp;&amp;xl2&lt;xr1]F [xl1&gt;xr2&amp;&amp;xl2&gt;xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]F [y&gt;=yr1&amp;&amp;y&lt;=yr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 5: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]F [yl1&gt;yr2&amp;&amp;yl2&gt;yr2]F [xl1&lt;xr1&amp;&amp;xl2&lt;xr1]F [xl1&gt;xr2&amp;&amp;xl2&gt;xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 6: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]F [yl1&gt;yr2&amp;&amp;yl2&gt;yr2]F [xl1&lt;xr1&amp;&amp;xl2&lt;xr1]F [xl1&gt;xr2&amp;&amp;xl2&gt;xr2]F [x&gt;=xr1&amp;&amp;x&lt;=xr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 7: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]F [yl1&gt;yr2&amp;&amp;yl2&gt;yr2]F [xl1&lt;xr1&amp;&amp;xl2&lt;xr1]F [xl1&gt;xr2&amp;&amp;xl2&gt;xr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 8: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]F [yl1&gt;yr2&amp;&amp;yl2&gt;yr2]F [xl1&lt;xr1&amp;&amp;xl2&lt;xr1]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 9: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]F [yl1&gt;yr2&amp;&amp;yl2&gt;yr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 10: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]F [yl1&lt;yr1&amp;&amp;yl2&lt;yr1]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 11: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]T [xl1&lt;xr1]F [xl1&gt;xr2]F [yl1&gt;yr2||yl2&lt;yr1]F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 12: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]T [xl1&lt;xr1]F [xl1&gt;xr2]F [yl1&gt;yr2||yl2&lt;yr1]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 13: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]T [xl1&lt;xr1]F [xl1&gt;xr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 14: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]F [xl1==xl2]T [xl1&lt;xr1]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 15: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]T [yl1&lt;yr1]F [yl1&gt;yr2]F [xl1&gt;xr2||xl2&lt;xr1]F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 16: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]T [yl1&lt;yr1]F [yl1&gt;yr2]F [xl1&gt;xr2||xl2&lt;xr1]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 17: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]T [yl1&lt;yr1]F [yl1&gt;yr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 18: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]F [yl1==yl2]T [yl1&lt;yr1]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path 19: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]T </t>
   </si>
 </sst>
 </file>
@@ -384,8 +636,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AB110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
@@ -1662,12 +1915,523 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
+++ b/CFT4CUnitSrc/src/report/PPSOBenchmarkReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="355">
   <si>
     <t>{</t>
   </si>
@@ -601,6 +601,486 @@
   </si>
   <si>
     <t xml:space="preserve">Path 19: [xr1&lt;xr2&amp;&amp;yr1&lt;yr2&amp;&amp;xl1&lt;=xl2]T [xl1&gt;=xr1&amp;&amp;xl1&lt;=xr2&amp;&amp;xl2&gt;=xr1&amp;&amp;xl2&lt;=xr2&amp;&amp;yl1&gt;=yr1&amp;&amp;yl1&lt;=yr2&amp;&amp;yl2&gt;=yr1&amp;&amp;yl2&lt;=yr2]T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 4779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 2735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 3317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 2458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 1409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 7325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 6949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 3991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 8469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 6360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 8853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 9540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 5313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 6883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 9745</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 7, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 6216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 7099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 6120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 8809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 5527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 3546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 5468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 9024</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 1, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 3476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 4781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 2295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 2461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 4499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 7790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 2635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 2647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 6586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 2268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 8320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 6722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 9492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 345</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 2, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: -3831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: -1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: -3778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: -769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: -542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: -7203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: -1254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 10732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 5603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 9245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 6457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 6552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 8347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 2259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 5713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: -5696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: -2494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: -18402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 2945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: -2655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: -5664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 6447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: -4862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: -719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: -303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 3096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 10203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 9312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 11416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 4706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: -4745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: -3119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: -2783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: -1412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 10347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 5546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 4241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 1832</t>
+  </si>
+  <si>
+    <t>Test path ID:  19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 5704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 3498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 3779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 8739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 7921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 6964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 7546</t>
+  </si>
+  <si>
+    <t>Test path ID:  15</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 102, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 8130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 9478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: -1683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 9870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 4846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 7985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 7985</t>
+  </si>
+  <si>
+    <t>Test path ID:  17</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 150, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 2147483647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 2147483647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: -2147483648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: -2147483648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 2147483647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: -2147483648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: -2147483648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: -2147483648</t>
+  </si>
+  <si>
+    <t>Test path ID:  18</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 203, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: -2147483648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: -2147483648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 2147483647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 2147483647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 300997884</t>
+  </si>
+  <si>
+    <t>Test path ID:  16</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 192, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 2147483647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 2147483647</t>
+  </si>
+  <si>
+    <t>Test path ID:  13</t>
+  </si>
+  <si>
+    <t>Solution found at iteration 999, the solutions is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 2312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 5241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 4564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 8233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 7196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 7196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 9732</t>
+  </si>
+  <si>
+    <t>Test path ID:  11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: -6213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: -5178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: -3105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: -447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 3438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 3438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 3775</t>
+  </si>
+  <si>
+    <t>Test path ID:  12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: -17283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: -14594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: -9680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 27093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 27093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: -35499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: -14046</t>
+  </si>
+  <si>
+    <t>Test path ID:  14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X1: 7499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X2: 9106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X3: 5488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X4: 5669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X5: 2544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X6: 2544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X7: 8904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Best X8: 3614</t>
   </si>
 </sst>
 </file>
@@ -1915,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2105,330 +2585,1338 @@
       <c r="A24" t="s">
         <v>131</v>
       </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>132</v>
       </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>133</v>
       </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>134</v>
       </c>
+      <c r="J27" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>135</v>
       </c>
+      <c r="J28" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>136</v>
       </c>
+      <c r="J29" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>137</v>
       </c>
+      <c r="J30" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>138</v>
       </c>
+      <c r="J31" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="J32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="J33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="J34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="J37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="J39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="J40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="J41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="J42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="J43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="J44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="J45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="J46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="J47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="J48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="J49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="J50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="J51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="J52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="J53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="J54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="J55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="J56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="J57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="J58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="J59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="J60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="J62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="J63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="J64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="J65" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="J66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="J67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="J68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="J69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="J70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="J71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="J72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="J73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="J74" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="J75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="J76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="J77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="J78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="J79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="J80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="J81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="J82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="J83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="J84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="J85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="J86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="J87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="J88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="J90" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="J91" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="J92" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="J93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="J94" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="J95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="J96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10">
+      <c r="J97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10">
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10">
+      <c r="J99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10">
+      <c r="J100" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10">
+      <c r="J101" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10">
+      <c r="J102" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10">
+      <c r="J103" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10">
+      <c r="J104" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10">
+      <c r="J105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10">
+      <c r="J106" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10">
+      <c r="J108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10">
+      <c r="J109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10">
+      <c r="J110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10">
+      <c r="J111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10">
+      <c r="J112" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10">
+      <c r="J147" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10">
+      <c r="J148" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="149" spans="10:10">
+      <c r="J149" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="151" spans="10:10">
+      <c r="J151" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="152" spans="10:10">
+      <c r="J152" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="10:10">
+      <c r="J153" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="154" spans="10:10">
+      <c r="J154" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="10:10">
+      <c r="J157" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="10:10">
+      <c r="J161" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="162" spans="10:10">
+      <c r="J162" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="10:10">
+      <c r="J163" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="10:10">
+      <c r="J164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="10:10">
+      <c r="J165" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="10:10">
+      <c r="J166" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="167" spans="10:10">
+      <c r="J167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" spans="10:10">
+      <c r="J168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="10:10">
+      <c r="J169" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="170" spans="10:10">
+      <c r="J170" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="171" spans="10:10">
+      <c r="J171" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172" spans="10:10">
+      <c r="J172" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="10:10">
+      <c r="J173" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="174" spans="10:10">
+      <c r="J174" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="175" spans="10:10">
+      <c r="J175" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="176" spans="10:10">
+      <c r="J176" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="177" spans="10:10">
+      <c r="J177" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="179" spans="10:10">
+      <c r="J179" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="10:10">
+      <c r="J180" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="10:10">
+      <c r="J181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="10:10">
+      <c r="J182" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="183" spans="10:10">
+      <c r="J183" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="184" spans="10:10">
+      <c r="J184" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="185" spans="10:10">
+      <c r="J185" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="186" spans="10:10">
+      <c r="J186" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="187" spans="10:10">
+      <c r="J187" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="188" spans="10:10">
+      <c r="J188" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="189" spans="10:10">
+      <c r="J189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="10:10">
+      <c r="J190" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="191" spans="10:10">
+      <c r="J191" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="10:10">
+      <c r="J192" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="10:10">
+      <c r="J193" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="10:10">
+      <c r="J194" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="195" spans="10:10">
+      <c r="J195" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="196" spans="10:10">
+      <c r="J196" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="10:10">
+      <c r="J197" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="198" spans="10:10">
+      <c r="J198" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="199" spans="10:10">
+      <c r="J199" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="200" spans="10:10">
+      <c r="J200" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="201" spans="10:10">
+      <c r="J201" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="202" spans="10:10">
+      <c r="J202" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="203" spans="10:10">
+      <c r="J203" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="10:10">
+      <c r="J204" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="10:10">
+      <c r="J205" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206" spans="10:10">
+      <c r="J206" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="207" spans="10:10">
+      <c r="J207" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="208" spans="10:10">
+      <c r="J208" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="209" spans="10:10">
+      <c r="J209" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="210" spans="10:10">
+      <c r="J210" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="211" spans="10:10">
+      <c r="J211" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="10:10">
+      <c r="J212" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="213" spans="10:10">
+      <c r="J213" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="10:10">
+      <c r="J214" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="215" spans="10:10">
+      <c r="J215" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="10:10">
+      <c r="J216" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="217" spans="10:10">
+      <c r="J217" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="218" spans="10:10">
+      <c r="J218" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="219" spans="10:10">
+      <c r="J219" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="220" spans="10:10">
+      <c r="J220" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="221" spans="10:10">
+      <c r="J221" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="222" spans="10:10">
+      <c r="J222" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="223" spans="10:10">
+      <c r="J223" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="224" spans="10:10">
+      <c r="J224" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="225" spans="10:10">
+      <c r="J225" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="226" spans="10:10">
+      <c r="J226" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="227" spans="10:10">
+      <c r="J227" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="228" spans="10:10">
+      <c r="J228" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="229" spans="10:10">
+      <c r="J229" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="230" spans="10:10">
+      <c r="J230" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="231" spans="10:10">
+      <c r="J231" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="232" spans="10:10">
+      <c r="J232" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="233" spans="10:10">
+      <c r="J233" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="234" spans="10:10">
+      <c r="J234" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="235" spans="10:10">
+      <c r="J235" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="236" spans="10:10">
+      <c r="J236" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="237" spans="10:10">
+      <c r="J237" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="238" spans="10:10">
+      <c r="J238" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="239" spans="10:10">
+      <c r="J239" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="240" spans="10:10">
+      <c r="J240" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="241" spans="10:10">
+      <c r="J241" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="242" spans="10:10">
+      <c r="J242" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="243" spans="10:10">
+      <c r="J243" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="244" spans="10:10">
+      <c r="J244" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="245" spans="10:10">
+      <c r="J245" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="246" spans="10:10">
+      <c r="J246" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="247" spans="10:10">
+      <c r="J247" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="248" spans="10:10">
+      <c r="J248" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="249" spans="10:10">
+      <c r="J249" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="250" spans="10:10">
+      <c r="J250" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="251" spans="10:10">
+      <c r="J251" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
